--- a/github-projects-tracking.xlsx
+++ b/github-projects-tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-ste\Documents\GitHub\2023-spring\adv-fe-tuth\tca-roll-for-it\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EDA41C-2F9D-41EC-9362-2F8A2EE26CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D52B66-55D9-465C-A52A-AC98806E1F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11626" xr2:uid="{C7409537-3D57-491C-B451-46C17F2EED1F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -154,7 +154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,7 +269,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C848D62-6260-490A-88B4-E96743056B79}" name="PivotTable1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Buckets" colHeaderCaption="Date">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C848D62-6260-490A-88B4-E96743056B79}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Buckets" colHeaderCaption="Date">
   <location ref="A1:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -358,7 +357,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1" caption="Backlog Breakdown"/>
   </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="0" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
     <rowHierarchyUsage hierarchyUsage="1"/>
     <rowHierarchyUsage hierarchyUsage="2"/>
@@ -682,7 +681,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -722,23 +721,18 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>0.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>-0.5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -746,21 +740,15 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>3</v>
       </c>
     </row>
@@ -768,12 +756,10 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>5</v>
       </c>
     </row>
@@ -781,14 +767,13 @@
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>4</v>
       </c>
     </row>
@@ -796,16 +781,16 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>11.5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>-0.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>12</v>
       </c>
     </row>
